--- a/results_exact/17_transbordo_porto.xlsx
+++ b/results_exact/17_transbordo_porto.xlsx
@@ -444,29 +444,29 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>ILHÉUS, BA, Brazil</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>VITÓRIA, ES, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SANTOS, SP, Brazil</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>SÃO LUIZ, MA, Brazil</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ILHÉUS, BA, Brazil</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FIGUEIRÓPOLIS, TO, Brazil</t>
+          <t>IPAMERI,GO, Brazil</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>659848.1523204407</v>
+        <v>178404.652</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -485,11 +485,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IPAMERI,GO, Brazil</t>
+          <t>FIGUEIRÓPOLIS, TO, Brazil</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>178404.652</v>
+        <v>86720.79450501337</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1628912.04</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>378682.6454949866</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>325779.0719999998</v>
       </c>
       <c r="D4" t="n">
-        <v>729132.056</v>
+        <v>24670.33850501373</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -523,36 +523,36 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RIO VERDE, GO, Brazil</t>
+          <t>ANÁPOLIS, GO, Brazil</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>147377.756</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2073190.568320442</v>
+        <v>294755.512</v>
       </c>
       <c r="D5" t="n">
-        <v>145232.4956795583</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>465403.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SÃO SIMÃO, GO, Brazil</t>
+          <t>RIO VERDE, GO, Brazil</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>736888.7800000001</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2831204.259999999</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>94696</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -580,17 +580,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ANÁPOLIS, GO, Brazil</t>
+          <t>SÃO SIMÃO, GO, Brazil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>294755.512</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>736888.7800000001</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ILHÉUS, BA, Brazil</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>VITÓRIA, ES, Brazil</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>SANTOS, SP, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SÃO LUIZ, MA, Brazil</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ILHÉUS, BA, Brazil</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>112576693.2673904</v>
+        <v>14994911.0006</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>30437617.67772001</v>
+        <v>9626875.398001535</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -662,18 +662,18 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>178659072.5472</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>45184413.2604618</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>47997030.67775997</v>
       </c>
       <c r="C4" t="n">
-        <v>124397220.07416</v>
+        <v>3230827.530616598</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -681,16 +681,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>25144118.95116</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>242418173.1537092</v>
+        <v>36322721.74376</v>
       </c>
       <c r="C5" t="n">
-        <v>24778116.08788944</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>79402480.89840001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -698,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>68059047.72080001</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>265623583.6731999</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>11072803.28</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -723,13 +723,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>50288237.90232001</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>60159599.99920001</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -757,22 +757,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ILHÉUS, BA, Brazil</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>VITÓRIA, ES, Brazil</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>SANTOS, SP, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SÃO LUIZ, MA, Brazil</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ILHÉUS, BA, Brazil</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>17897589313.90917</v>
+        <v>3328602635.1552</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4946632922.190081</v>
+        <v>2390228890.425255</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -801,18 +801,18 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>44182284390.552</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>11476337320.23879</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>12887109889.94303</v>
       </c>
       <c r="C4" t="n">
-        <v>21777278769.3744</v>
+        <v>842509822.5899423</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -820,16 +820,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5530674524.963199</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>45373330480.6191</v>
+        <v>9313616874.408241</v>
       </c>
       <c r="C5" t="n">
-        <v>6118990696.319507</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>17410105087.6872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>13158070277.875</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>61963028633.29498</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2129234825.2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9313616874.408241</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>13158070277.875</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1349733769.006293</v>
+        <v>1203716706.325243</v>
       </c>
       <c r="B2" t="n">
-        <v>163945689102483.1</v>
+        <v>150069950212804.2</v>
       </c>
     </row>
   </sheetData>
